--- a/OnBoard/output/trust/bio/Bio_Trust_45.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_45.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F2">
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -494,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I3">
         <v>-1</v>
@@ -541,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -588,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -635,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -682,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -729,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -776,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -823,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -870,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -917,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -947,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -964,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1011,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1058,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F15">
@@ -1088,14 +1088,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>181</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L15">
@@ -1105,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F16">
@@ -1135,14 +1135,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>67</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L16">
@@ -1152,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F17">
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1199,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F18">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1246,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F19">
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1293,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F20">
@@ -1323,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1340,7 +1340,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F21">
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1387,7 +1387,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1481,7 +1481,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -1528,7 +1528,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -1575,7 +1575,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -1622,7 +1622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F27">
@@ -1652,14 +1652,19 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L27">
@@ -1669,7 +1674,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1689,7 +1694,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F28">
@@ -1699,14 +1704,19 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L28">
@@ -1716,7 +1726,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1736,7 +1746,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F29">
@@ -1746,14 +1756,19 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>122</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L29">
@@ -1763,7 +1778,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1778,12 +1793,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F30">
@@ -1793,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -1810,7 +1825,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1825,12 +1840,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F31">
@@ -1840,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -1857,7 +1872,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1872,12 +1887,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F32">
@@ -1887,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -1904,7 +1919,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1919,12 +1934,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F33">
@@ -1934,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -1951,7 +1966,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1966,12 +1981,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SCORPOR</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F34">
@@ -1981,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -1998,7 +2013,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2013,12 +2028,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F35">
@@ -2028,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2045,7 +2060,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2060,12 +2075,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F36">
@@ -2075,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2092,7 +2107,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2107,12 +2122,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F37">
@@ -2122,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -2139,7 +2154,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2154,12 +2169,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F38">
@@ -2169,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -2186,7 +2201,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2201,12 +2216,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F39">
@@ -2216,7 +2231,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I39">
         <v>-1</v>
@@ -2233,7 +2248,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2248,12 +2263,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F40">
@@ -2263,19 +2278,14 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="I40">
-        <v>50</v>
+        <v>-1</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L40">
@@ -2285,7 +2295,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2300,12 +2310,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F41">
@@ -2315,14 +2325,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L41">
@@ -2332,7 +2342,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2347,12 +2357,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F42">
@@ -2362,14 +2372,14 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I42">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L42">
@@ -2379,7 +2389,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2394,12 +2404,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F43">
@@ -2409,19 +2419,14 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I43">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L43">
@@ -2431,7 +2436,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2446,12 +2451,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F44">
@@ -2461,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I44">
         <v>-1</v>
@@ -2478,7 +2483,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2493,12 +2498,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F45">
@@ -2508,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I45">
         <v>-1</v>
@@ -2525,7 +2530,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2540,12 +2545,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F46">
@@ -2555,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I46">
         <v>-1</v>
@@ -2572,7 +2577,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2587,12 +2592,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SPICMAE</t>
         </is>
       </c>
       <c r="F47">
@@ -2602,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="I47">
         <v>-1</v>
@@ -2619,7 +2624,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2634,12 +2639,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F48">
@@ -2649,14 +2654,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I48">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L48">
@@ -2666,7 +2671,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2681,7 +2686,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2696,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I49">
         <v>-1</v>
@@ -2713,7 +2718,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2728,12 +2733,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MONOHIS</t>
         </is>
       </c>
       <c r="F50">
@@ -2743,19 +2748,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I50">
-        <v>152</v>
+        <v>-1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>SOSEF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L50">
@@ -2765,7 +2765,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F51">
@@ -2795,19 +2795,14 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I51">
-        <v>112</v>
+        <v>-1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L51">
@@ -2817,7 +2812,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2832,12 +2827,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F52">
@@ -2847,19 +2842,14 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I52">
-        <v>173</v>
+        <v>-1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L52">
@@ -2869,7 +2859,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2884,12 +2874,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F53">
@@ -2899,19 +2889,14 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I53">
-        <v>59</v>
+        <v>-1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>SOSEM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L53">
@@ -2921,7 +2906,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2936,12 +2921,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F54">
@@ -2951,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I54">
         <v>-1</v>
@@ -2968,7 +2953,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2983,12 +2968,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F55">
@@ -2998,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="I55">
         <v>-1</v>
@@ -3015,7 +3000,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3030,12 +3015,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F56">
@@ -3045,14 +3030,19 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I56">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L56">
@@ -3062,7 +3052,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3082,7 +3072,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F57">
@@ -3092,14 +3082,19 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I57">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L57">
@@ -3109,7 +3104,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3129,7 +3124,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F58">
@@ -3139,14 +3134,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I58">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L58">
@@ -3156,7 +3156,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F59">
@@ -3186,14 +3186,19 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I59">
-        <v>-1</v>
+        <v>118</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L59">
@@ -3203,7 +3208,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3223,7 +3228,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F60">
@@ -3233,14 +3238,19 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="I60">
-        <v>-1</v>
+        <v>268</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L60">
@@ -3250,7 +3260,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3270,7 +3280,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F61">
@@ -3280,14 +3290,19 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I61">
-        <v>-1</v>
+        <v>101</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L61">
@@ -3297,7 +3312,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3312,12 +3327,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F62">
@@ -3327,24 +3342,34 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="I62">
-        <v>-1</v>
+        <v>251</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L62">
         <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>SS8245</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3359,12 +3384,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F63">
@@ -3374,24 +3399,39 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="I63">
-        <v>-1</v>
+        <v>264</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L63">
         <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>SS8246</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3406,12 +3446,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F64">
@@ -3421,24 +3461,34 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="I64">
-        <v>-1</v>
+        <v>225</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>HOLRM-4</t>
         </is>
       </c>
       <c r="L64">
         <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>SS8247</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3458,7 +3508,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F65">
@@ -3468,24 +3518,34 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="I65">
-        <v>-1</v>
+        <v>395</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L65">
         <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>SS8248</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3505,7 +3565,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F66">
@@ -3515,10 +3575,10 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="I66">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3527,17 +3587,22 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L66">
         <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>SS8249</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3557,7 +3622,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F67">
@@ -3567,29 +3632,34 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="I67">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L67">
         <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>SS8250</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3609,7 +3679,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F68">
@@ -3619,24 +3689,34 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="I68">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
+        </is>
+      </c>
       <c r="L68">
         <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>SS8251</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3656,7 +3736,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F69">
@@ -3666,1262 +3746,17 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>29</v>
-      </c>
-      <c r="I70">
-        <v>15</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>32</v>
-      </c>
-      <c r="I71">
-        <v>19</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>GOBINIG</t>
-        </is>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>70</v>
-      </c>
-      <c r="I72">
-        <v>-1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>GOBINIG</t>
-        </is>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>70</v>
-      </c>
-      <c r="I73">
-        <v>-1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>GOBINIG</t>
-        </is>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>85</v>
-      </c>
-      <c r="I74">
-        <v>-1</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>GOBINIG</t>
-        </is>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>60</v>
-      </c>
-      <c r="I75">
-        <v>-1</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>GOBINIG</t>
-        </is>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
-        <v>70</v>
-      </c>
-      <c r="I76">
-        <v>-1</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>SEPIOFF</t>
-        </is>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>85</v>
-      </c>
-      <c r="I77">
-        <v>85</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>SOSEM-3</t>
-        </is>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>BUGLLUT</t>
-        </is>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>100</v>
-      </c>
-      <c r="I78">
-        <v>-1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>BUGLLUT</t>
-        </is>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>90</v>
-      </c>
-      <c r="I79">
-        <v>-1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>BUGLLUT</t>
-        </is>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="H80">
-        <v>80</v>
-      </c>
-      <c r="I80">
-        <v>-1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>SPICFLE</t>
-        </is>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>95</v>
-      </c>
-      <c r="I81">
-        <v>-1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>SPICFLE</t>
-        </is>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>95</v>
-      </c>
-      <c r="I82">
-        <v>-1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>ELEDMOS</t>
-        </is>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>115</v>
-      </c>
-      <c r="I83">
-        <v>-1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>GOBIQUA</t>
-        </is>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>66</v>
-      </c>
-      <c r="I84">
-        <v>-1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>GOBIQUA</t>
-        </is>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>60</v>
-      </c>
-      <c r="I85">
-        <v>-1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>290</v>
-      </c>
-      <c r="I86">
-        <v>196</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>SS7746</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>289</v>
-      </c>
-      <c r="I87">
-        <v>203</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
-        </is>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>SS7747</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>307</v>
-      </c>
-      <c r="I88">
-        <v>302</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>SS7748</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>312</v>
-      </c>
-      <c r="I89">
-        <v>295</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>SS7749</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>331</v>
-      </c>
-      <c r="I90">
-        <v>391</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>SS7750</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>315</v>
-      </c>
-      <c r="I91">
-        <v>324</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
-        </is>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>SS7751</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>AEQUOPE</t>
-        </is>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>19</v>
-      </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>AEQUOPE</t>
-        </is>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>20</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>AEQUOPE</t>
-        </is>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>18</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L94">
         <v>0</v>
       </c>
     </row>
